--- a/config_6.1/act_ty_phb_config.xlsx
+++ b/config_6.1/act_ty_phb_config.xlsx
@@ -29,7 +29,7 @@
     <t>item_key</t>
   </si>
   <si>
-    <t>reward_item_key|奖励道具图片key</t>
+    <t>reward_item_key|奖励道具key</t>
   </si>
   <si>
     <t>rank_type|排行榜类型</t>
@@ -62,7 +62,7 @@
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <t>ty_icon_flq1_1</t>
+    <t>shop_gold_sum</t>
   </si>
   <si>
     <t>hlly_018_hlbd_rank</t>
@@ -148,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -180,66 +180,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,9 +216,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,11 +283,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,16 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,22 +317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,19 +350,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +434,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,133 +500,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,22 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +624,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,138 +655,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,12 +809,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1188,7 +1182,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1243,7 +1237,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1266,31 +1260,31 @@
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1622505600</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1623081599</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="1">
@@ -1298,36 +1292,36 @@
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:14">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="9" spans="12:12">
       <c r="L9" s="1" t="s">

--- a/config_6.1/act_ty_phb_config.xlsx
+++ b/config_6.1/act_ty_phb_config.xlsx
@@ -148,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -180,31 +180,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,65 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -283,41 +300,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,19 +350,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,55 +458,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,91 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,30 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,9 +585,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:14">

--- a/config_6.1/act_ty_phb_config.xlsx
+++ b/config_6.1/act_ty_phb_config.xlsx
@@ -148,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -180,12 +180,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -194,68 +223,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +262,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -293,6 +279,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -300,6 +294,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -307,17 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,13 +350,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,163 +506,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,21 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +600,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -596,8 +609,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -620,21 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:14">

--- a/config_6.1/act_ty_phb_config.xlsx
+++ b/config_6.1/act_ty_phb_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>line|</t>
   </si>
@@ -29,7 +29,10 @@
     <t>item_key</t>
   </si>
   <si>
-    <t>reward_item_key|奖励道具key</t>
+    <t>reward_item_key|基础奖励道具key</t>
+  </si>
+  <si>
+    <t>ext_reward_item_key|额外奖励道具key</t>
   </si>
   <si>
     <t>rank_type|排行榜类型</t>
@@ -150,8 +153,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -180,6 +183,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,68 +197,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,14 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -278,30 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -356,175 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +575,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -600,29 +621,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,145 +646,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1179,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,18 +1195,19 @@
     <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="56.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="58.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,17 +1241,20 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1258,24 +1265,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8">
         <v>1622505600</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>1623081599</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="13" t="s">
@@ -1284,48 +1291,53 @@
       <c r="L2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:14">
+    <row r="3" s="5" customFormat="1" spans="1:15">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="8"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:14">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="8"/>
-    </row>
-    <row r="9" spans="12:12">
-      <c r="L9" s="1" t="s">
-        <v>22</v>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1354,19 +1366,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1377,7 +1389,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1388,7 +1400,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1399,7 +1411,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1410,7 +1422,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1421,7 +1433,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1432,7 +1444,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1443,7 +1455,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1454,13 +1466,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1471,13 +1483,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1488,13 +1500,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1505,13 +1517,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,13 +1534,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1539,13 +1551,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
         <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1556,13 +1568,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
         <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="5:5">
